--- a/sample01.xlsx
+++ b/sample01.xlsx
@@ -669,11 +669,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1011,55 +1014,55 @@
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="16.5" spans="1:9">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>44207</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>44207</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>1000</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>1569979.36</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="16.5" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44238</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44207</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>200</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>1570179.36</v>
       </c>
     </row>
@@ -1075,61 +1078,71 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A1" sqref="A$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="9.3" style="2" customWidth="true"/>
+    <col min="2" max="2" width="16.9" style="2" customWidth="true"/>
+    <col min="3" max="3" width="9.3" style="2" customWidth="true"/>
+    <col min="4" max="4" width="59.2" style="2" customWidth="true"/>
+    <col min="5" max="5" width="14.6" style="2" customWidth="true"/>
+    <col min="6" max="6" width="1.8" style="2" customWidth="true"/>
+    <col min="7" max="7" width="5.3" style="2" customWidth="true"/>
+    <col min="8" max="8" width="11.4" style="2" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="16.5" spans="1:9">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>44207</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>44207</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>1000</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>1569979.36</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="16.5" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>44238</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44207</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>200</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>1570179.36</v>
       </c>
     </row>

--- a/sample01.xlsx
+++ b/sample01.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>FTC210110LXSBJK</t>
   </si>
   <si>
-    <t>Pesalink Transfer 210110LXSBJK 0747808314 MERCY  NKATHA07478</t>
+    <t>Pesalink Transfer 210110LXSBJK 0747808314 MERCY NKATHA07478</t>
   </si>
   <si>
     <t>Pesalink Transfer</t>
@@ -41,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -61,14 +60,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,14 +68,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,72 +106,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +130,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -181,9 +146,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,14 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,25 +212,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,15 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -446,11 +436,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,32 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -524,159 +523,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
@@ -1007,142 +1003,62 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="16.5" spans="1:9">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>44207</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="2">
         <v>44207</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="4">
         <v>1000</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="4">
         <v>1569979.36</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="true" ht="16.5" spans="1:8">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44238</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>44207</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>200</v>
       </c>
-      <c r="H2" s="5">
-        <v>1570179.36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:H$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="9.3" style="2" customWidth="true"/>
-    <col min="2" max="2" width="16.9" style="2" customWidth="true"/>
-    <col min="3" max="3" width="9.3" style="2" customWidth="true"/>
-    <col min="4" max="4" width="59.2" style="2" customWidth="true"/>
-    <col min="5" max="5" width="14.6" style="2" customWidth="true"/>
-    <col min="6" max="6" width="1.8" style="2" customWidth="true"/>
-    <col min="7" max="7" width="5.3" style="2" customWidth="true"/>
-    <col min="8" max="8" width="11.4" style="2" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="true" ht="16.5" spans="1:9">
-      <c r="A1" s="3">
-        <v>44207</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3">
-        <v>44207</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5">
-        <v>1000</v>
-      </c>
-      <c r="H1" s="5">
-        <v>1569979.36</v>
-      </c>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="16.5" spans="1:8">
-      <c r="A2" s="3">
-        <v>44238</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44207</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>200</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>1570179.36</v>
       </c>
     </row>

--- a/sample01.xlsx
+++ b/sample01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7425"/>
+    <workbookView windowWidth="20490" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>FTC210110LXSBJK</t>
   </si>
@@ -33,16 +33,19 @@
   <si>
     <t>Pesalink Transfer 210110LXSGNU 0747921830 STELLAH MWAI074792</t>
   </si>
+  <si>
+    <t>&lt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,14 +62,81 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -74,9 +144,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,112 +185,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,187 +215,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,60 +424,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,6 +444,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,9 +489,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +526,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,10 +1007,14 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="4" max="4" width="59.4" customWidth="true"/>
+    <col min="5" max="5" width="29.2" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="16.5" spans="1:9">
       <c r="A1" s="2">
@@ -1058,8 +1065,8 @@
       <c r="G2" s="4">
         <v>200</v>
       </c>
-      <c r="H2" s="4">
-        <v>1570179.36</v>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
